--- a/bin/driving_template.xlsx
+++ b/bin/driving_template.xlsx
@@ -42,10 +42,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -63,10 +63,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -74,6 +75,14 @@
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -94,6 +103,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -101,10 +117,10 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -116,17 +132,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -142,7 +165,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -150,29 +180,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -180,21 +195,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -209,13 +209,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -227,61 +371,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -293,103 +389,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -408,6 +408,15 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -463,6 +472,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -476,57 +500,33 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -535,115 +535,115 @@
     <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -973,15 +973,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="283" zoomScaleNormal="283" zoomScaleSheetLayoutView="60" workbookViewId="0">
       <pane xSplit="139300" topLeftCell="AL1" activePane="topLeft"/>
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="E6" sqref="E6"/>
       <selection pane="topRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.3846153846154" defaultRowHeight="16.8" outlineLevelRow="3" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="10.3846153846154" defaultRowHeight="16.8" outlineLevelCol="6"/>
   <cols>
     <col min="4" max="4" width="15.6826923076923" customWidth="1"/>
     <col min="5" max="5" width="15.4038461538462" customWidth="1"/>
@@ -1012,75 +1012,6 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
-      <c r="A2">
-        <v>4703</v>
-      </c>
-      <c r="B2">
-        <v>14752</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>22.477301</v>
-      </c>
-      <c r="E2">
-        <v>113.902</v>
-      </c>
-      <c r="F2">
-        <v>22.5394</v>
-      </c>
-      <c r="G2">
-        <v>114.030998</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3">
-        <v>5050</v>
-      </c>
-      <c r="B3">
-        <v>8622</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>22.4795</v>
-      </c>
-      <c r="E3">
-        <v>113.876999</v>
-      </c>
-      <c r="F3">
-        <v>22.501699</v>
-      </c>
-      <c r="G3">
-        <v>113.882004</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4">
-        <v>5059</v>
-      </c>
-      <c r="B4">
-        <v>7554</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>22.4795</v>
-      </c>
-      <c r="E4">
-        <v>113.899002</v>
-      </c>
-      <c r="F4">
-        <v>22.495001</v>
-      </c>
-      <c r="G4">
-        <v>113.889</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
